--- a/docs/data sample/2023年住建厅.xlsx
+++ b/docs/data sample/2023年住建厅.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="26240" windowHeight="10700"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$102</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$P$102</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="921" uniqueCount="284">
   <si>
     <t>序号</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>身份证</t>
+  </si>
+  <si>
+    <t>客户类型</t>
   </si>
   <si>
     <t>学历</t>
@@ -888,16 +891,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -918,7 +921,7 @@
       <b/>
       <sz val="16"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -926,7 +929,7 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -934,14 +937,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -949,7 +952,7 @@
       <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -957,7 +960,7 @@
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -965,7 +968,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -973,7 +976,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -981,14 +984,14 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -996,7 +999,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1004,7 +1007,7 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1012,14 +1015,14 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1027,42 +1030,42 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -1406,19 +1409,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
@@ -1602,55 +1605,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Link" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="Explanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1911,12 +1914,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:P103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J14" sqref="J14"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H$1:H$1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="30" customHeight="1"/>
@@ -1927,16 +1930,16 @@
     <col min="5" max="5" width="21.75" style="1" customWidth="1"/>
     <col min="6" max="6" width="15" style="1" customWidth="1"/>
     <col min="7" max="7" width="29" style="1" customWidth="1"/>
-    <col min="8" max="8" width="6.75" style="1" customWidth="1"/>
-    <col min="9" max="9" width="6.625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="25.625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="16.375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="46.25" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.25" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="9" style="1"/>
+    <col min="8" max="9" width="6.75" style="1" customWidth="1"/>
+    <col min="10" max="10" width="6.625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="25.625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="16.375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="46.25" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.25" style="1" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1964,3899 +1967,4003 @@
       <c r="I1" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="9" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
       <c r="N1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2"/>
-    </row>
-    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="O1" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2"/>
+    </row>
+    <row r="2" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C2" s="2">
         <v>4.21</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="H2" s="2"/>
       <c r="I2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="11">
+      <c r="J2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="11">
         <v>15588319137</v>
       </c>
-      <c r="L2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="2"/>
+      <c r="N2" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="O2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P2" s="2"/>
+    </row>
+    <row r="3" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C3" s="2">
         <v>5.6</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F3" s="12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="H3" s="2"/>
       <c r="I3" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J3" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K3" s="11">
+      <c r="J3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="11">
         <v>13808077534</v>
       </c>
-      <c r="L3" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="M3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="13"/>
+      <c r="P3" s="2"/>
+    </row>
+    <row r="4" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A4" s="2">
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="2">
         <v>6.2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H4" s="2"/>
       <c r="I4" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J4" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" s="11">
+      <c r="J4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L4" s="11">
         <v>13550788570</v>
       </c>
-      <c r="L4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="N4" s="13"/>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="N4" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O4" s="13"/>
+      <c r="P4" s="2"/>
+    </row>
+    <row r="5" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C5" s="2">
         <v>6.5</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K5" s="11">
+      <c r="J5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="11">
         <v>18602333294</v>
       </c>
-      <c r="L5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N5" s="13"/>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="M5" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="13"/>
+      <c r="P5" s="2"/>
+    </row>
+    <row r="6" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" s="2">
         <v>6.5</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="H6" s="2"/>
       <c r="I6" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J6" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="K6" s="11">
+      <c r="K6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="11">
         <v>13980503330</v>
       </c>
-      <c r="L6" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="M6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N6" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="N6" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="O6" s="2"/>
-    </row>
-    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P6" s="2"/>
+    </row>
+    <row r="7" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>6.6</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H7" s="2"/>
       <c r="I7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="11">
+      <c r="J7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L7" s="11">
         <v>15037446808</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="M7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" s="13"/>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:15">
+        <v>43</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="13"/>
+      <c r="P7" s="2"/>
+    </row>
+    <row r="8" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A8" s="2">
         <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2">
         <v>6.6</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="H8" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="H8" s="2"/>
       <c r="I8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="11">
+        <v>46</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L8" s="11">
         <v>18651720301</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="13"/>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="M8" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="N8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="13"/>
+      <c r="P8" s="2"/>
+    </row>
+    <row r="9" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A9" s="2">
         <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
         <v>6.6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G9" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="H9" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="H9" s="2"/>
       <c r="I9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J9" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K9" s="11">
+        <v>50</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L9" s="11">
         <v>18520014746</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="M9" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="2"/>
+      <c r="M9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="O9" s="2"/>
-    </row>
-    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P9" s="2"/>
+    </row>
+    <row r="10" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C10" s="2">
         <v>6.6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G10" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K10" s="11">
+      <c r="J10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L10" s="11">
         <v>15205127506</v>
       </c>
-      <c r="L10" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="M10" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="2"/>
+      <c r="M10" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="O10" s="2"/>
-    </row>
-    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P10" s="2"/>
+    </row>
+    <row r="11" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" s="2">
         <v>6.6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="H11" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="H11" s="2"/>
       <c r="I11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K11" s="11">
+      <c r="J11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L11" s="11">
         <v>18705122121</v>
       </c>
-      <c r="L11" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" s="2"/>
+      <c r="M11" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="O11" s="2"/>
-    </row>
-    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P11" s="2"/>
+    </row>
+    <row r="12" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C12" s="2">
         <v>6.6</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="2" t="s">
         <v>61</v>
       </c>
+      <c r="H12" s="2"/>
       <c r="I12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J12" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K12" s="11">
+        <v>62</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L12" s="11">
         <v>13880908205</v>
       </c>
-      <c r="L12" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="M12" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>63</v>
+      </c>
+      <c r="N12" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="O12" s="2"/>
-    </row>
-    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P12" s="2"/>
+    </row>
+    <row r="13" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A13" s="2">
         <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C13" s="2">
         <v>6.8</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="G13" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="H13" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J13" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K13" s="11">
+        <v>66</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L13" s="11">
         <v>18228268740</v>
       </c>
-      <c r="L13" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="M13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N13" s="2"/>
+      <c r="M13" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="N13" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="O13" s="2"/>
-    </row>
-    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="P13" s="2"/>
+    </row>
+    <row r="14" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C14" s="2">
         <v>6.2</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="H14" s="2"/>
       <c r="I14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J14" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K14" s="11">
+      <c r="J14" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="11">
         <v>15282182436</v>
       </c>
-      <c r="L14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N14" s="2"/>
-    </row>
-    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:15">
+      <c r="M14" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="O14" s="2"/>
+    </row>
+    <row r="15" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C15" s="2">
         <v>6.6</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J15" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K15" s="11">
+      <c r="J15" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L15" s="11">
         <v>18715868923</v>
       </c>
-      <c r="L15" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="M15" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N15" s="2"/>
-    </row>
-    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:15">
+        <v>75</v>
+      </c>
+      <c r="N15" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O15" s="2"/>
+    </row>
+    <row r="16" s="1" customFormat="1" customHeight="1" spans="1:16">
       <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" s="2">
         <v>6.6</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="H16" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J16" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K16" s="11">
+      <c r="J16" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L16" s="11">
         <v>15722490727</v>
       </c>
-      <c r="L16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="M16" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" s="2"/>
-    </row>
-    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="M16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O16" s="2"/>
+    </row>
+    <row r="17" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A17" s="2">
         <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C17" s="2">
         <v>6.6</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G17" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="H17" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J17" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K17" s="11">
+      <c r="J17" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L17" s="11">
         <v>19141052150</v>
       </c>
-      <c r="L17" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="M17" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N17" s="2"/>
-    </row>
-    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="M17" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O17" s="2"/>
+    </row>
+    <row r="18" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A18" s="2">
         <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C18" s="2">
         <v>6.6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="H18" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="H18" s="2"/>
       <c r="I18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J18" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K18" s="11">
+      <c r="J18" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="11">
         <v>17620855925</v>
       </c>
-      <c r="L18" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="M18" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N18" s="2"/>
-    </row>
-    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="M18" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O18" s="2"/>
+    </row>
+    <row r="19" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A19" s="2">
         <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C19" s="2">
         <v>6.6</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J19" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K19" s="11">
+      <c r="J19" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L19" s="11">
         <v>18161164981</v>
       </c>
-      <c r="L19" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N19" s="2"/>
-    </row>
-    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="M19" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O19" s="2"/>
+    </row>
+    <row r="20" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A20" s="2">
         <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C20" s="2">
         <v>7.31</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G20" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="H20" s="2"/>
       <c r="I20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K20" s="11">
+      <c r="J20" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L20" s="11">
         <v>18623374968</v>
       </c>
-      <c r="L20" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="M20" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N20" s="2"/>
-    </row>
-    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="M20" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="N20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="2"/>
+    </row>
+    <row r="21" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A21" s="2">
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C21" s="2">
         <v>8.2</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J21" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K21" s="11">
+      <c r="J21" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L21" s="11">
         <v>18623129337</v>
       </c>
-      <c r="L21" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="M21" s="2" t="s">
+      <c r="M21" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="N21" s="2"/>
-    </row>
-    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="N21" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A22" s="2">
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2">
         <v>8.11</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G22" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="H22" s="2"/>
       <c r="I22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J22" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K22" s="11">
+      <c r="J22" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K22" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L22" s="11">
         <v>18716989577</v>
       </c>
-      <c r="L22" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="M22" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N22" s="2"/>
-    </row>
-    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="M22" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="N22" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O22" s="2"/>
+    </row>
+    <row r="23" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A23" s="2">
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C23" s="2">
         <v>8.11</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="G23" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="H23" s="2"/>
       <c r="I23" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J23" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K23" s="11">
+      <c r="J23" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K23" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L23" s="11">
         <v>18225451164</v>
       </c>
-      <c r="L23" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="M23" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="N23" s="2"/>
-    </row>
-    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="M23" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="N23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="O23" s="2"/>
+    </row>
+    <row r="24" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2">
         <v>6.6</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E24" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F24" s="12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G24" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="H24" s="2"/>
       <c r="I24" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J24" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K24" s="11">
+      <c r="J24" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K24" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L24" s="11">
         <v>13782253206</v>
       </c>
-      <c r="L24" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="M24" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="M24" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="N24" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C25" s="2">
         <v>6.6</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E25" s="13" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F25" s="12" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G25" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="H25" s="2"/>
       <c r="I25" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J25" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K25" s="11">
+      <c r="J25" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K25" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="11">
         <v>15836592156</v>
       </c>
-      <c r="L25" s="2" t="s">
-        <v>110</v>
-      </c>
       <c r="M25" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:14">
+        <v>111</v>
+      </c>
+      <c r="N25" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A26" s="2">
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C26" s="2">
         <v>7.5</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E26" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="G26" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="H26" s="2"/>
       <c r="I26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K26" s="11">
+        <v>20</v>
+      </c>
+      <c r="J26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L26" s="11">
         <v>15170535206</v>
       </c>
-      <c r="L26" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="M26" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N26" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="27" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A27" s="2">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C27" s="2">
         <v>7.5</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E27" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="G27" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="H27" s="2"/>
       <c r="I27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J27" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K27" s="11">
+      <c r="J27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="11">
         <v>15932831083</v>
       </c>
-      <c r="L27" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="M27" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="N27" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="28" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A28" s="2">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C28" s="2">
         <v>7.5</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E28" s="13" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="G28" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="H28" s="2"/>
       <c r="I28" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J28" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K28" s="11">
+      <c r="J28" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L28" s="11">
         <v>13576183366</v>
       </c>
-      <c r="L28" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="M28" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="M28" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="N28" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="29" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A29" s="2">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C29" s="2">
         <v>7.5</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E29" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="G29" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="H29" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="H29" s="2"/>
       <c r="I29" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J29" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K29" s="11">
+      <c r="J29" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L29" s="11">
         <v>15916913889</v>
       </c>
-      <c r="L29" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="M29" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="M29" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="N29" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="30" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A30" s="2">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C30" s="2">
         <v>7.5</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E30" s="13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="G30" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H30" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>127</v>
+      </c>
+      <c r="H30" s="2"/>
       <c r="I30" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J30" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K30" s="11">
+      <c r="J30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L30" s="11">
         <v>15283786065</v>
       </c>
-      <c r="L30" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="M30" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:14">
+      <c r="M30" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="N30" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="31" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A31" s="2">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C31" s="2">
         <v>6.6</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E31" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G31" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>130</v>
+      </c>
+      <c r="H31" s="2"/>
       <c r="I31" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J31" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K31" s="11">
+      <c r="J31" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L31" s="11">
         <v>18520155790</v>
       </c>
-      <c r="L31" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="M31" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:14">
+        <v>131</v>
+      </c>
+      <c r="N31" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" s="1" customFormat="1" customHeight="1" spans="1:15">
       <c r="A32" s="2">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C32" s="2">
         <v>6.6</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E32" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>133</v>
+      </c>
+      <c r="H32" s="2"/>
       <c r="I32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J32" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K32" s="11">
+      <c r="J32" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L32" s="11">
         <v>13683749626</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="M32" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:13">
+        <v>134</v>
+      </c>
+      <c r="N32" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A33" s="2">
         <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C33" s="2">
         <v>8.7</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E33" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G33" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>136</v>
+      </c>
+      <c r="H33" s="2"/>
       <c r="I33" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J33" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K33" s="11">
+      <c r="J33" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L33" s="11">
         <v>17760583967</v>
       </c>
-      <c r="L33" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="M33" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M33" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="N33" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A34" s="2">
         <v>33</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C34" s="2">
         <v>8.11</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E34" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G34" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="H34" s="2"/>
       <c r="I34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J34" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K34" s="2">
+      <c r="J34" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L34" s="2">
         <v>10000000087</v>
       </c>
-      <c r="L34" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="M34" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M34" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="N34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A35" s="2">
         <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C35" s="2">
         <v>8.11</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E35" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G35" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="H35" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="H35" s="2"/>
       <c r="I35" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J35" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K35" s="2">
+      <c r="J35" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L35" s="2">
         <v>10000000103</v>
       </c>
-      <c r="L35" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="M35" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M35" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="N35" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A36" s="2">
         <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C36" s="2">
         <v>8.11</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E36" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="H36" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="H36" s="2"/>
       <c r="I36" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J36" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K36" s="2">
+      <c r="J36" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L36" s="2">
         <v>10000000104</v>
       </c>
-      <c r="L36" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="M36" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M36" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="N36" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A37" s="2">
         <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C37" s="2">
         <v>8.21</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E37" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="G37" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="H37" s="2"/>
       <c r="I37" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J37" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K37" s="2">
+      <c r="J37" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L37" s="2">
         <v>10000000105</v>
       </c>
-      <c r="L37" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M37" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="N37" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="38" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A38" s="2">
         <v>37</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C38" s="2">
         <v>8.21</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E38" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G38" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="H38" s="2"/>
       <c r="I38" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J38" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K38" s="2">
+      <c r="J38" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L38" s="2">
         <v>10000000106</v>
       </c>
-      <c r="L38" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="M38" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M38" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="N38" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A39" s="2">
         <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C39" s="2">
         <v>8.22</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E39" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G39" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>154</v>
+      </c>
+      <c r="H39" s="2"/>
       <c r="I39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J39" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K39" s="11">
+      <c r="J39" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L39" s="11">
         <v>13549008802</v>
       </c>
-      <c r="L39" s="2" t="s">
-        <v>154</v>
-      </c>
       <c r="M39" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:13">
+        <v>155</v>
+      </c>
+      <c r="N39" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A40" s="2">
         <v>39</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C40" s="2">
         <v>8.22</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E40" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="H40" s="2"/>
       <c r="I40" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J40" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K40" s="11">
+      <c r="J40" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L40" s="11">
         <v>15985799668</v>
       </c>
-      <c r="L40" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="M40" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:13">
+        <v>158</v>
+      </c>
+      <c r="N40" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A41" s="2">
         <v>40</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C41" s="2">
         <v>8.22</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E41" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G41" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="H41" s="2"/>
       <c r="I41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J41" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K41" s="11">
+      <c r="J41" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L41" s="11">
         <v>15039591708</v>
       </c>
-      <c r="L41" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="M41" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:13">
+        <v>161</v>
+      </c>
+      <c r="N41" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A42" s="2">
         <v>41</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C42" s="2">
         <v>8.22</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E42" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G42" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="H42" s="2"/>
       <c r="I42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J42" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K42" s="11">
+      <c r="J42" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L42" s="11">
         <v>17746799538</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="M42" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:13">
+        <v>164</v>
+      </c>
+      <c r="N42" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A43" s="2">
         <v>42</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C43" s="2">
         <v>8.23</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E43" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G43" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="H43" s="2" t="s">
-        <v>19</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="H43" s="2"/>
       <c r="I43" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K43" s="2">
+      <c r="J43" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K43" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L43" s="2">
         <v>10000000107</v>
       </c>
-      <c r="L43" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="M43" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M43" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="N43" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A44" s="2">
         <v>43</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C44" s="2">
         <v>8.31</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F44" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="G44" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="H44" s="2"/>
-      <c r="I44" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J44" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K44" s="11">
+      <c r="I44" s="2"/>
+      <c r="J44" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L44" s="11">
         <v>13088111997</v>
       </c>
-      <c r="L44" s="10" t="s">
-        <v>169</v>
-      </c>
-      <c r="M44" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M44" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="N44" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A45" s="2">
         <v>44</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" s="2">
         <v>9.1</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E45" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F45" s="14" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G45" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H45" s="2"/>
-      <c r="I45" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J45" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K45" s="11">
+      <c r="I45" s="2"/>
+      <c r="J45" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="K45" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L45" s="11">
         <v>10000000108</v>
       </c>
-      <c r="L45" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="M45" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M45" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="N45" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A46" s="2">
         <v>45</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C46" s="2">
         <v>9.2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E46" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F46" s="14" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G46" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H46" s="2"/>
-      <c r="I46" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K46" s="11">
+      <c r="I46" s="2"/>
+      <c r="J46" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K46" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L46" s="11">
         <v>10000000109</v>
       </c>
-      <c r="L46" s="10" t="s">
-        <v>175</v>
-      </c>
-      <c r="M46" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M46" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="N46" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="47" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A47" s="2">
         <v>46</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C47" s="2">
         <v>9.4</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E47" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F47" s="14" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G47" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H47" s="2"/>
-      <c r="I47" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K47" s="11">
+      <c r="I47" s="2"/>
+      <c r="J47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K47" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L47" s="11">
         <v>10000000110</v>
       </c>
-      <c r="L47" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="M47" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M47" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="N47" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A48" s="2">
         <v>47</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2">
         <v>9.4</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E48" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F48" s="14" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G48" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H48" s="2"/>
-      <c r="I48" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J48" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K48" s="11">
+      <c r="I48" s="2"/>
+      <c r="J48" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K48" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L48" s="11">
         <v>10000000111</v>
       </c>
-      <c r="L48" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="M48" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M48" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="N48" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="49" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A49" s="2">
         <v>48</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2">
         <v>9.4</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E49" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F49" s="14" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G49" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H49" s="2"/>
-      <c r="I49" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" s="11">
+      <c r="I49" s="2"/>
+      <c r="J49" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K49" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L49" s="11">
         <v>10000000112</v>
       </c>
-      <c r="L49" s="10" t="s">
-        <v>184</v>
-      </c>
-      <c r="M49" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M49" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="N49" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="50" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A50" s="2">
         <v>49</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C50" s="2">
         <v>9.7</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F50" s="14" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G50" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H50" s="2"/>
-      <c r="I50" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K50" s="11">
+      <c r="I50" s="2"/>
+      <c r="J50" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L50" s="11">
         <v>10000000113</v>
       </c>
-      <c r="L50" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="M50" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M50" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="N50" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A51" s="2">
         <v>50</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C51" s="2">
         <v>9.7</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E51" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="G51" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="H51" s="2"/>
-      <c r="I51" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K51" s="11">
+      <c r="I51" s="2"/>
+      <c r="J51" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L51" s="11">
         <v>10000000114</v>
       </c>
-      <c r="L51" s="10" t="s">
-        <v>190</v>
-      </c>
-      <c r="M51" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M51" s="10" t="s">
+        <v>191</v>
+      </c>
+      <c r="N51" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A52" s="2">
         <v>51</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E52" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G52" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H52" s="2"/>
-      <c r="I52" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K52" s="11">
+      <c r="I52" s="2"/>
+      <c r="J52" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L52" s="11">
         <v>10000000115</v>
       </c>
-      <c r="L52" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="M52" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M52" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="N52" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A53" s="2">
         <v>52</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E53" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G53" s="2" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H53" s="2"/>
-      <c r="I53" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J53" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K53" s="11">
+      <c r="I53" s="2"/>
+      <c r="J53" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K53" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L53" s="11">
         <v>10000000116</v>
       </c>
-      <c r="L53" s="10" t="s">
-        <v>197</v>
-      </c>
-      <c r="M53" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M53" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="N53" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A54" s="2">
         <v>53</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E54" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="G54" s="2" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H54" s="2"/>
-      <c r="I54" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J54" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K54" s="11">
+      <c r="I54" s="2"/>
+      <c r="J54" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K54" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L54" s="11">
         <v>10000000117</v>
       </c>
-      <c r="L54" s="10" t="s">
-        <v>200</v>
-      </c>
-      <c r="M54" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M54" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="N54" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="55" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A55" s="2">
         <v>54</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E55" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G55" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H55" s="2"/>
-      <c r="I55" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J55" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K55" s="11">
+      <c r="I55" s="2"/>
+      <c r="J55" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K55" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L55" s="11">
         <v>10000000118</v>
       </c>
-      <c r="L55" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="M55" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M55" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="N55" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A56" s="2">
         <v>55</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E56" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G56" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H56" s="2"/>
-      <c r="I56" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K56" s="11">
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L56" s="11">
         <v>10000000119</v>
       </c>
-      <c r="L56" s="10" t="s">
-        <v>206</v>
-      </c>
-      <c r="M56" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M56" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="N56" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A57" s="2">
         <v>56</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E57" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
-      <c r="I57" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J57" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K57" s="11">
+      <c r="I57" s="2"/>
+      <c r="J57" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K57" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L57" s="11">
         <v>10000000120</v>
       </c>
-      <c r="L57" s="10"/>
-      <c r="M57" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M57" s="10"/>
+      <c r="N57" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A58" s="2">
         <v>57</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E58" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
-      <c r="I58" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J58" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K58" s="11">
+      <c r="I58" s="2"/>
+      <c r="J58" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L58" s="11">
         <v>10000000121</v>
       </c>
-      <c r="L58" s="10"/>
-      <c r="M58" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M58" s="10"/>
+      <c r="N58" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="59" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A59" s="2">
         <v>58</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E59" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G59" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H59" s="2"/>
-      <c r="I59" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J59" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K59" s="11">
+      <c r="I59" s="2"/>
+      <c r="J59" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L59" s="11">
         <v>10000000122</v>
       </c>
-      <c r="L59" s="10"/>
-      <c r="M59" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M59" s="10"/>
+      <c r="N59" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="60" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A60" s="2">
         <v>59</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C60" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E60" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F60" s="14" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J60" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K60" s="11">
+      <c r="I60" s="2"/>
+      <c r="J60" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L60" s="11">
         <v>10000000123</v>
       </c>
-      <c r="L60" s="10"/>
-      <c r="M60" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M60" s="10"/>
+      <c r="N60" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="61" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A61" s="2">
         <v>60</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E61" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
-      <c r="I61" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J61" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K61" s="11">
+      <c r="I61" s="2"/>
+      <c r="J61" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L61" s="11">
         <v>10000000124</v>
       </c>
-      <c r="L61" s="10"/>
-      <c r="M61" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M61" s="10"/>
+      <c r="N61" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="62" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A62" s="2">
         <v>61</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E62" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F62" s="14" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
-      <c r="I62" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J62" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K62" s="11">
+      <c r="I62" s="2"/>
+      <c r="J62" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L62" s="11">
         <v>10000000125</v>
       </c>
-      <c r="L62" s="10"/>
-      <c r="M62" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M62" s="10"/>
+      <c r="N62" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="63" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A63" s="2">
         <v>62</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E63" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G63" s="2"/>
       <c r="H63" s="2"/>
-      <c r="I63" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J63" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="K63" s="11">
+      <c r="I63" s="2"/>
+      <c r="J63" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K63" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L63" s="11">
         <v>10000000126</v>
       </c>
-      <c r="L63" s="10"/>
-      <c r="M63" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M63" s="10"/>
+      <c r="N63" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="64" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A64" s="2">
         <v>63</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E64" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
-      <c r="I64" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K64" s="11">
+      <c r="I64" s="2"/>
+      <c r="J64" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L64" s="11">
         <v>10000000127</v>
       </c>
-      <c r="L64" s="10"/>
-      <c r="M64" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M64" s="10"/>
+      <c r="N64" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A65" s="2">
         <v>64</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E65" s="13" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F65" s="14" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="G65" s="2"/>
       <c r="H65" s="2"/>
-      <c r="I65" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J65" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K65" s="11">
+      <c r="I65" s="2"/>
+      <c r="J65" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L65" s="11">
         <v>10000000128</v>
       </c>
-      <c r="L65" s="10"/>
-      <c r="M65" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M65" s="10"/>
+      <c r="N65" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A66" s="2">
         <v>65</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="G66" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="H66" s="2"/>
-      <c r="I66" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J66" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K66" s="11">
+      <c r="I66" s="2"/>
+      <c r="J66" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K66" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L66" s="11">
         <v>10000000129</v>
       </c>
-      <c r="L66" s="10" t="s">
-        <v>223</v>
-      </c>
-      <c r="M66" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M66" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="N66" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A67" s="2">
         <v>66</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="G67" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="H67" s="2"/>
-      <c r="I67" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J67" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K67" s="11">
+      <c r="I67" s="2"/>
+      <c r="J67" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K67" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L67" s="11">
         <v>10000000130</v>
       </c>
-      <c r="L67" s="10" t="s">
-        <v>227</v>
-      </c>
-      <c r="M67" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M67" s="10" t="s">
+        <v>228</v>
+      </c>
+      <c r="N67" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A68" s="2">
         <v>67</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F68" s="14" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="G68" s="2"/>
       <c r="H68" s="2"/>
-      <c r="I68" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J68" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K68" s="11">
+      <c r="I68" s="2"/>
+      <c r="J68" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K68" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L68" s="11">
         <v>10000000131</v>
       </c>
-      <c r="L68" s="10"/>
-      <c r="M68" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M68" s="10"/>
+      <c r="N68" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A69" s="2">
         <v>68</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="G69" s="2"/>
       <c r="H69" s="2"/>
-      <c r="I69" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J69" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K69" s="11">
+      <c r="I69" s="2"/>
+      <c r="J69" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K69" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L69" s="11">
         <v>10000000132</v>
       </c>
-      <c r="L69" s="10"/>
-      <c r="M69" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M69" s="10"/>
+      <c r="N69" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="70" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A70" s="2">
         <v>69</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G70" s="2"/>
       <c r="H70" s="2"/>
-      <c r="I70" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K70" s="11">
+      <c r="I70" s="2"/>
+      <c r="J70" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L70" s="11">
         <v>10000000133</v>
       </c>
-      <c r="L70" s="10"/>
-      <c r="M70" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M70" s="10"/>
+      <c r="N70" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A71" s="2">
         <v>70</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G71" s="2"/>
       <c r="H71" s="2"/>
-      <c r="I71" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J71" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K71" s="11">
+      <c r="I71" s="2"/>
+      <c r="J71" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L71" s="11">
         <v>10000000134</v>
       </c>
-      <c r="L71" s="10"/>
-      <c r="M71" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M71" s="10"/>
+      <c r="N71" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A72" s="2">
         <v>71</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
-      <c r="I72" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J72" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K72" s="11">
+      <c r="I72" s="2"/>
+      <c r="J72" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L72" s="11">
         <v>10000000135</v>
       </c>
-      <c r="L72" s="10"/>
-      <c r="M72" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M72" s="10"/>
+      <c r="N72" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A73" s="2">
         <v>72</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F73" s="14" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G73" s="2"/>
       <c r="H73" s="2"/>
-      <c r="I73" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J73" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K73" s="11">
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K73" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L73" s="11">
         <v>10000000136</v>
       </c>
-      <c r="L73" s="10"/>
-      <c r="M73" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M73" s="10"/>
+      <c r="N73" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="74" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A74" s="2">
         <v>73</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G74" s="2"/>
       <c r="H74" s="2"/>
-      <c r="I74" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J74" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K74" s="11">
+      <c r="I74" s="2"/>
+      <c r="J74" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K74" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L74" s="11">
         <v>10000000137</v>
       </c>
-      <c r="L74" s="10"/>
-      <c r="M74" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M74" s="10"/>
+      <c r="N74" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="75" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A75" s="2">
         <v>74</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G75" s="2"/>
       <c r="H75" s="2"/>
-      <c r="I75" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J75" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K75" s="11">
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K75" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L75" s="11">
         <v>10000000138</v>
       </c>
-      <c r="L75" s="10"/>
-      <c r="M75" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="76" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M75" s="10"/>
+      <c r="N75" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="76" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A76" s="2">
         <v>75</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G76" s="2"/>
       <c r="H76" s="2"/>
-      <c r="I76" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J76" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K76" s="11">
+      <c r="I76" s="2"/>
+      <c r="J76" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K76" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L76" s="11">
         <v>10000000139</v>
       </c>
-      <c r="L76" s="10"/>
-      <c r="M76" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M76" s="10"/>
+      <c r="N76" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A77" s="2">
         <v>76</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G77" s="2"/>
       <c r="H77" s="2"/>
-      <c r="I77" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J77" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K77" s="11">
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K77" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L77" s="11">
         <v>10000000140</v>
       </c>
-      <c r="L77" s="10"/>
-      <c r="M77" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="78" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M77" s="10"/>
+      <c r="N77" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="78" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A78" s="2">
         <v>77</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="G78" s="2"/>
       <c r="H78" s="2"/>
-      <c r="I78" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J78" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K78" s="11">
+      <c r="I78" s="2"/>
+      <c r="J78" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K78" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L78" s="11">
         <v>10000000141</v>
       </c>
-      <c r="L78" s="10"/>
-      <c r="M78" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="79" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M78" s="10"/>
+      <c r="N78" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A79" s="2">
         <v>78</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F79" s="14" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="G79" s="2"/>
       <c r="H79" s="2"/>
-      <c r="I79" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J79" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K79" s="11">
+      <c r="I79" s="2"/>
+      <c r="J79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L79" s="11">
         <v>10000000142</v>
       </c>
-      <c r="L79" s="10"/>
-      <c r="M79" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M79" s="10"/>
+      <c r="N79" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A80" s="2">
         <v>79</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F80" s="14" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="G80" s="2"/>
       <c r="H80" s="2"/>
-      <c r="I80" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J80" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K80" s="11">
+      <c r="I80" s="2"/>
+      <c r="J80" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K80" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L80" s="11">
         <v>10000000143</v>
       </c>
-      <c r="L80" s="10"/>
-      <c r="M80" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M80" s="10"/>
+      <c r="N80" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="81" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A81" s="2">
         <v>80</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F81" s="14" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G81" s="2"/>
       <c r="H81" s="2"/>
-      <c r="I81" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J81" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K81" s="11">
+      <c r="I81" s="2"/>
+      <c r="J81" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K81" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L81" s="11">
         <v>10000000144</v>
       </c>
-      <c r="L81" s="10"/>
-      <c r="M81" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M81" s="10"/>
+      <c r="N81" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A82" s="2">
         <v>81</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F82" s="14" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="G82" s="2"/>
       <c r="H82" s="2"/>
-      <c r="I82" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J82" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K82" s="11">
+      <c r="I82" s="2"/>
+      <c r="J82" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K82" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L82" s="11">
         <v>10000000145</v>
       </c>
-      <c r="L82" s="10"/>
-      <c r="M82" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M82" s="10"/>
+      <c r="N82" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="83" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A83" s="2">
         <v>82</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F83" s="14" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="G83" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H83" s="2"/>
-      <c r="I83" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J83" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K83" s="11">
+      <c r="I83" s="2"/>
+      <c r="J83" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K83" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L83" s="11">
         <v>10000000146</v>
       </c>
-      <c r="L83" s="10"/>
-      <c r="M83" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M83" s="10"/>
+      <c r="N83" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="84" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A84" s="2">
         <v>83</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F84" s="14" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="G84" s="2"/>
       <c r="H84" s="2"/>
-      <c r="I84" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J84" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K84" s="11">
+      <c r="I84" s="2"/>
+      <c r="J84" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K84" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L84" s="11">
         <v>10000000147</v>
       </c>
-      <c r="L84" s="10"/>
-      <c r="M84" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M84" s="10"/>
+      <c r="N84" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="85" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A85" s="2">
         <v>84</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F85" s="14" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="G85" s="2"/>
       <c r="H85" s="2"/>
-      <c r="I85" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J85" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K85" s="11">
+      <c r="I85" s="2"/>
+      <c r="J85" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K85" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L85" s="11">
         <v>10000000148</v>
       </c>
-      <c r="L85" s="10"/>
-      <c r="M85" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M85" s="10"/>
+      <c r="N85" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="86" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A86" s="2">
         <v>85</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F86" s="14" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G86" s="2"/>
       <c r="H86" s="2"/>
-      <c r="I86" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J86" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="K86" s="11">
+      <c r="I86" s="2"/>
+      <c r="J86" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K86" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="L86" s="11">
         <v>10000000149</v>
       </c>
-      <c r="L86" s="10"/>
-      <c r="M86" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="87" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M86" s="10"/>
+      <c r="N86" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="87" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A87" s="2">
         <v>86</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F87" s="14" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="G87" s="2"/>
       <c r="H87" s="2"/>
-      <c r="I87" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J87" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K87" s="11">
+      <c r="I87" s="2"/>
+      <c r="J87" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K87" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L87" s="11">
         <v>10000000150</v>
       </c>
-      <c r="L87" s="10"/>
-      <c r="M87" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M87" s="10"/>
+      <c r="N87" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="88" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A88" s="2">
         <v>87</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F88" s="14" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="G88" s="2"/>
       <c r="H88" s="2"/>
-      <c r="I88" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J88" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="K88" s="11">
+      <c r="I88" s="2"/>
+      <c r="J88" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K88" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="L88" s="11">
         <v>10000000151</v>
       </c>
-      <c r="L88" s="10"/>
-      <c r="M88" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M88" s="10"/>
+      <c r="N88" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A89" s="2">
         <v>88</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F89" s="14" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="G89" s="2"/>
       <c r="H89" s="2"/>
-      <c r="I89" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J89" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K89" s="11">
+      <c r="I89" s="2"/>
+      <c r="J89" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K89" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L89" s="11">
         <v>10000000152</v>
       </c>
-      <c r="L89" s="10"/>
-      <c r="M89" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M89" s="10"/>
+      <c r="N89" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="90" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A90" s="2">
         <v>89</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F90" s="14" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="G90" s="2"/>
       <c r="H90" s="2"/>
-      <c r="I90" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J90" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K90" s="11">
+      <c r="I90" s="2"/>
+      <c r="J90" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K90" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L90" s="11">
         <v>10000000153</v>
       </c>
-      <c r="L90" s="10"/>
-      <c r="M90" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M90" s="10"/>
+      <c r="N90" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="91" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A91" s="2">
         <v>90</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C91" s="3" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F91" s="14" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="G91" s="2"/>
       <c r="H91" s="2"/>
-      <c r="I91" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J91" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K91" s="11">
+      <c r="I91" s="2"/>
+      <c r="J91" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K91" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L91" s="11">
         <v>10000000154</v>
       </c>
-      <c r="L91" s="10"/>
-      <c r="M91" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M91" s="10"/>
+      <c r="N91" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="92" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A92" s="2">
         <v>91</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F92" s="14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G92" s="2"/>
       <c r="H92" s="2"/>
-      <c r="I92" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J92" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K92" s="11">
+      <c r="I92" s="2"/>
+      <c r="J92" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K92" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L92" s="11">
         <v>10000000155</v>
       </c>
-      <c r="L92" s="10"/>
-      <c r="M92" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M92" s="10"/>
+      <c r="N92" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="93" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A93" s="2">
         <v>92</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F93" s="14" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G93" s="2"/>
       <c r="H93" s="2"/>
-      <c r="I93" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J93" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K93" s="11">
+      <c r="I93" s="2"/>
+      <c r="J93" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K93" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L93" s="11">
         <v>10000000156</v>
       </c>
-      <c r="L93" s="10"/>
-      <c r="M93" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M93" s="10"/>
+      <c r="N93" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="94" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A94" s="2">
         <v>93</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F94" s="14" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
-      <c r="I94" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J94" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K94" s="11">
+      <c r="I94" s="2"/>
+      <c r="J94" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K94" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L94" s="11">
         <v>10000000157</v>
       </c>
-      <c r="L94" s="10"/>
-      <c r="M94" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M94" s="10"/>
+      <c r="N94" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="95" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A95" s="2">
         <v>94</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F95" s="14" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G95" s="2"/>
       <c r="H95" s="2"/>
-      <c r="I95" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="J95" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K95" s="11">
+      <c r="I95" s="2"/>
+      <c r="J95" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="K95" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L95" s="11">
         <v>10000000158</v>
       </c>
-      <c r="L95" s="10"/>
-      <c r="M95" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="96" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M95" s="10"/>
+      <c r="N95" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="96" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A96" s="2">
         <v>95</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F96" s="14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G96" s="2"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
-      <c r="J96" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K96" s="11">
+      <c r="J96" s="2"/>
+      <c r="K96" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L96" s="11">
         <v>10000000159</v>
       </c>
-      <c r="L96" s="10"/>
-      <c r="M96" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M96" s="10"/>
+      <c r="N96" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="97" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A97" s="2">
         <v>96</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F97" s="14" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="G97" s="2"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
-      <c r="J97" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K97" s="11">
+      <c r="J97" s="2"/>
+      <c r="K97" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L97" s="11">
         <v>10000000160</v>
       </c>
-      <c r="L97" s="10"/>
-      <c r="M97" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="98" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M97" s="10"/>
+      <c r="N97" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A98" s="2">
         <v>97</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F98" s="14" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G98" s="2"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
-      <c r="J98" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K98" s="11">
+      <c r="J98" s="2"/>
+      <c r="K98" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L98" s="11">
         <v>10000000161</v>
       </c>
-      <c r="L98" s="10"/>
-      <c r="M98" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="99" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M98" s="10"/>
+      <c r="N98" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A99" s="2">
         <v>98</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F99" s="14" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="G99" s="2"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
-      <c r="J99" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K99" s="11">
+      <c r="J99" s="2"/>
+      <c r="K99" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L99" s="11">
         <v>10000000162</v>
       </c>
-      <c r="L99" s="10"/>
-      <c r="M99" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="100" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M99" s="10"/>
+      <c r="N99" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="100" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A100" s="2">
         <v>99</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C100" s="2">
         <v>12.18</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F100" s="14" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G100" s="2"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
-      <c r="J100" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K100" s="11">
+      <c r="J100" s="2"/>
+      <c r="K100" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L100" s="11">
         <v>10000000163</v>
       </c>
-      <c r="L100" s="10"/>
-      <c r="M100" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="101" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M100" s="10"/>
+      <c r="N100" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="101" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A101" s="2">
         <v>100</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C101" s="2">
         <v>12.27</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F101" s="14" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G101" s="2"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
-      <c r="J101" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K101" s="11">
+      <c r="J101" s="2"/>
+      <c r="K101" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L101" s="11">
         <v>10000000164</v>
       </c>
-      <c r="L101" s="10"/>
-      <c r="M101" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="102" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M101" s="10"/>
+      <c r="N101" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="102" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="A102" s="2">
         <v>101</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C102" s="2">
         <v>12.29</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F102" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="G102" s="2"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
-      <c r="J102" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="K102" s="11">
+      <c r="J102" s="2"/>
+      <c r="K102" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="L102" s="11">
         <v>10000000165</v>
       </c>
-      <c r="L102" s="10"/>
-      <c r="M102" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="103" s="1" customFormat="1" customHeight="1" spans="1:13">
+      <c r="M102" s="10"/>
+      <c r="N102" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" s="1" customFormat="1" customHeight="1" spans="1:14">
       <c r="G103" s="15"/>
     </row>
   </sheetData>
-  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:O102" etc:filterBottomFollowUsedRange="0">
+  <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A1:P102" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5874,7 +5981,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -5891,7 +5998,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
